--- a/Document/ORDER.xlsx
+++ b/Document/ORDER.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\orderAppDoc\https---github.com-fuko9x-Document\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20100" windowHeight="7935"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -135,12 +140,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -541,6 +546,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -566,20 +583,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -587,6 +595,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -607,7 +623,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -620,7 +642,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -676,7 +704,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -729,7 +763,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="TextBox 9"/>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -782,7 +822,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10"/>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -835,7 +881,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="TextBox 11"/>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -918,7 +970,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="LOGO APP.png"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="LOGO APP.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -996,7 +1054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,9 +1086,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1062,6 +1138,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1237,14 +1331,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -1257,80 +1351,80 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1">
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="O5">
         <v>218784</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="29.25" customHeight="1">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
       <c r="O6">
         <v>390312</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1341,7 +1435,7 @@
         <v>522302</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="26.25">
+    <row r="8" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
@@ -1369,11 +1463,12 @@
       <c r="I8" s="21" t="s">
         <v>2</v>
       </c>
+      <c r="L8" s="39"/>
       <c r="O8">
         <v>150000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="23.25" customHeight="1">
+    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>24</v>
@@ -1394,7 +1489,7 @@
       <c r="H9" s="4">
         <v>6620</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="27">
         <f>H9*C9</f>
         <v>1350480</v>
       </c>
@@ -1402,7 +1497,7 @@
         <v>558432</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="23.25" customHeight="1">
+    <row r="10" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
@@ -1423,7 +1518,7 @@
       <c r="H10" s="4">
         <v>7380</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="27">
         <f>H10*C10</f>
         <v>1505520</v>
       </c>
@@ -1432,7 +1527,7 @@
         <v>1839830</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="23.25" customHeight="1">
+    <row r="11" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1443,7 +1538,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="23.25" customHeight="1">
+    <row r="12" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1454,7 +1549,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="17.25" customHeight="1">
+    <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1467,12 +1562,12 @@
         <v>5</v>
       </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="37">
+      <c r="I13" s="28">
         <f>I10+I9</f>
         <v>2856000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.25" customHeight="1">
+    <row r="14" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1483,12 +1578,12 @@
         <v>6</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="38">
+      <c r="I14" s="29">
         <f>I13*0.1</f>
         <v>285600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.25" customHeight="1">
+    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1499,12 +1594,12 @@
         <v>17</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="38">
+      <c r="I15" s="29">
         <f>I14+I13</f>
         <v>3141600</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="17.25" customHeight="1">
+    <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1517,29 +1612,29 @@
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" ht="6" customHeight="1"/>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A18:I18"/>
@@ -1554,24 +1649,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
